--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Igf2-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Igf2-Insr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.44675466666667</v>
+        <v>6.162983666666666</v>
       </c>
       <c r="H2">
-        <v>31.340264</v>
+        <v>18.488951</v>
       </c>
       <c r="I2">
-        <v>0.2092639271807731</v>
+        <v>0.08645678993430435</v>
       </c>
       <c r="J2">
-        <v>0.2499877559676775</v>
+        <v>0.1144526672494406</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.03654733333334</v>
+        <v>15.70818033333333</v>
       </c>
       <c r="N2">
-        <v>42.10964200000001</v>
+        <v>47.12454099999999</v>
       </c>
       <c r="O2">
-        <v>0.3033248635033714</v>
+        <v>0.3220467100482788</v>
       </c>
       <c r="P2">
-        <v>0.3241347232362797</v>
+        <v>0.334408980496766</v>
       </c>
       <c r="Q2">
-        <v>146.6363663583876</v>
+        <v>96.80925882738786</v>
       </c>
       <c r="R2">
-        <v>1319.727297225488</v>
+        <v>871.2833294464909</v>
       </c>
       <c r="S2">
-        <v>0.06347495214828745</v>
+        <v>0.02784312475967786</v>
       </c>
       <c r="T2">
-        <v>0.08102971209304179</v>
+        <v>0.03827399977002105</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.44675466666667</v>
+        <v>6.162983666666666</v>
       </c>
       <c r="H3">
-        <v>31.340264</v>
+        <v>18.488951</v>
       </c>
       <c r="I3">
-        <v>0.2092639271807731</v>
+        <v>0.08645678993430435</v>
       </c>
       <c r="J3">
-        <v>0.2499877559676775</v>
+        <v>0.1144526672494406</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>17.55978</v>
       </c>
       <c r="O3">
-        <v>0.1264868951307928</v>
+        <v>0.1200026410479322</v>
       </c>
       <c r="P3">
-        <v>0.1351646359375356</v>
+        <v>0.1246091315254933</v>
       </c>
       <c r="Q3">
-        <v>61.14757122021333</v>
+        <v>36.07354577675333</v>
       </c>
       <c r="R3">
-        <v>550.32814098192</v>
+        <v>324.66191199078</v>
       </c>
       <c r="S3">
-        <v>0.02646914441197232</v>
+        <v>0.01037504312864281</v>
       </c>
       <c r="T3">
-        <v>0.03378950402421263</v>
+        <v>0.01426184746672907</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.44675466666667</v>
+        <v>6.162983666666666</v>
       </c>
       <c r="H4">
-        <v>31.340264</v>
+        <v>18.488951</v>
       </c>
       <c r="I4">
-        <v>0.2092639271807731</v>
+        <v>0.08645678993430435</v>
       </c>
       <c r="J4">
-        <v>0.2499877559676775</v>
+        <v>0.1144526672494406</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.056607</v>
+        <v>10.959131</v>
       </c>
       <c r="N4">
-        <v>27.169821</v>
+        <v>32.877393</v>
       </c>
       <c r="O4">
-        <v>0.1957100999869823</v>
+        <v>0.2246824271585863</v>
       </c>
       <c r="P4">
-        <v>0.2091369575218488</v>
+        <v>0.2333072161810874</v>
       </c>
       <c r="Q4">
-        <v>94.612151441416</v>
+        <v>67.54094535386034</v>
       </c>
       <c r="R4">
-        <v>851.509362972744</v>
+        <v>607.8685081847431</v>
       </c>
       <c r="S4">
-        <v>0.04095506411221769</v>
+        <v>0.01942532140677953</v>
       </c>
       <c r="T4">
-        <v>0.05228167870079447</v>
+        <v>0.02670263318046731</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.44675466666667</v>
+        <v>6.162983666666666</v>
       </c>
       <c r="H5">
-        <v>31.340264</v>
+        <v>18.488951</v>
       </c>
       <c r="I5">
-        <v>0.2092639271807731</v>
+        <v>0.08645678993430435</v>
       </c>
       <c r="J5">
-        <v>0.2499877559676775</v>
+        <v>0.1144526672494406</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.912860999999999</v>
+        <v>5.4093935</v>
       </c>
       <c r="N5">
-        <v>17.825722</v>
+        <v>10.818787</v>
       </c>
       <c r="O5">
-        <v>0.1926037993566548</v>
+        <v>0.1109025579706895</v>
       </c>
       <c r="P5">
-        <v>0.1372116976666974</v>
+        <v>0.07677315161290731</v>
       </c>
       <c r="Q5">
-        <v>93.11047224510133</v>
+        <v>33.33800378707284</v>
       </c>
       <c r="R5">
-        <v>558.662833470608</v>
+        <v>200.028022722437</v>
       </c>
       <c r="S5">
-        <v>0.04030502744331125</v>
+        <v>0.009588279157648909</v>
       </c>
       <c r="T5">
-        <v>0.0343012443922131</v>
+        <v>0.008786891975242937</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.44675466666667</v>
+        <v>6.162983666666666</v>
       </c>
       <c r="H6">
-        <v>31.340264</v>
+        <v>18.488951</v>
       </c>
       <c r="I6">
-        <v>0.2092639271807731</v>
+        <v>0.08645678993430435</v>
       </c>
       <c r="J6">
-        <v>0.2499877559676775</v>
+        <v>0.1144526672494406</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.416348666666666</v>
+        <v>10.84612833333333</v>
       </c>
       <c r="N6">
-        <v>25.249046</v>
+        <v>32.538385</v>
       </c>
       <c r="O6">
-        <v>0.1818743420221987</v>
+        <v>0.2223656637745133</v>
       </c>
       <c r="P6">
-        <v>0.1943519856376384</v>
+        <v>0.230901520183746</v>
       </c>
       <c r="Q6">
-        <v>87.92352970979377</v>
+        <v>66.84451176490388</v>
       </c>
       <c r="R6">
-        <v>791.3117673881441</v>
+        <v>601.600605884135</v>
       </c>
       <c r="S6">
-        <v>0.03805973906498441</v>
+        <v>0.01922502148155524</v>
       </c>
       <c r="T6">
-        <v>0.04858561675741552</v>
+        <v>0.02642729485698028</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>37.863356</v>
       </c>
       <c r="I7">
-        <v>0.252819649917553</v>
+        <v>0.1770540803477592</v>
       </c>
       <c r="J7">
-        <v>0.3020196447561928</v>
+        <v>0.2343865850050179</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.03654733333334</v>
+        <v>15.70818033333333</v>
       </c>
       <c r="N7">
-        <v>42.10964200000001</v>
+        <v>47.12454099999999</v>
       </c>
       <c r="O7">
-        <v>0.3033248635033714</v>
+        <v>0.3220467100482788</v>
       </c>
       <c r="P7">
-        <v>0.3241347232362797</v>
+        <v>0.334408980496766</v>
       </c>
       <c r="Q7">
-        <v>177.1569295642836</v>
+        <v>198.2548080243995</v>
       </c>
       <c r="R7">
-        <v>1594.412366078552</v>
+        <v>1784.293272219596</v>
       </c>
       <c r="S7">
-        <v>0.07668648580221189</v>
+        <v>0.05701968407661945</v>
       </c>
       <c r="T7">
-        <v>0.09789505396496807</v>
+        <v>0.07838097893364664</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>37.863356</v>
       </c>
       <c r="I8">
-        <v>0.252819649917553</v>
+        <v>0.1770540803477592</v>
       </c>
       <c r="J8">
-        <v>0.3020196447561928</v>
+        <v>0.2343865850050179</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>17.55978</v>
       </c>
       <c r="O8">
-        <v>0.1264868951307928</v>
+        <v>0.1200026410479322</v>
       </c>
       <c r="P8">
-        <v>0.1351646359375356</v>
+        <v>0.1246091315254933</v>
       </c>
       <c r="Q8">
         <v>73.87468904685332</v>
@@ -948,10 +948,10 @@
         <v>664.87220142168</v>
       </c>
       <c r="S8">
-        <v>0.03197837254612528</v>
+        <v>0.0212469572500439</v>
       </c>
       <c r="T8">
-        <v>0.04082237532945464</v>
+        <v>0.02920670879870151</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>37.863356</v>
       </c>
       <c r="I9">
-        <v>0.252819649917553</v>
+        <v>0.1770540803477592</v>
       </c>
       <c r="J9">
-        <v>0.3020196447561928</v>
+        <v>0.2343865850050179</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.056607</v>
+        <v>10.959131</v>
       </c>
       <c r="N9">
-        <v>27.169821</v>
+        <v>32.877393</v>
       </c>
       <c r="O9">
-        <v>0.1957100999869823</v>
+        <v>0.2246824271585863</v>
       </c>
       <c r="P9">
-        <v>0.2091369575218488</v>
+        <v>0.2333072161810874</v>
       </c>
       <c r="Q9">
-        <v>114.304511664364</v>
+        <v>138.3164928345453</v>
       </c>
       <c r="R9">
-        <v>1028.740604979276</v>
+        <v>1244.848435510908</v>
       </c>
       <c r="S9">
-        <v>0.04947935896403816</v>
+        <v>0.03978094051086589</v>
       </c>
       <c r="T9">
-        <v>0.06316346961613975</v>
+        <v>0.05468408165771253</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>37.863356</v>
       </c>
       <c r="I10">
-        <v>0.252819649917553</v>
+        <v>0.1770540803477592</v>
       </c>
       <c r="J10">
-        <v>0.3020196447561928</v>
+        <v>0.2343865850050179</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.912860999999999</v>
+        <v>5.4093935</v>
       </c>
       <c r="N10">
-        <v>17.825722</v>
+        <v>10.818787</v>
       </c>
       <c r="O10">
-        <v>0.1926037993566548</v>
+        <v>0.1109025579706895</v>
       </c>
       <c r="P10">
-        <v>0.1372116976666974</v>
+        <v>0.07677315161290731</v>
       </c>
       <c r="Q10">
-        <v>112.4902763405053</v>
+        <v>68.27259727819533</v>
       </c>
       <c r="R10">
-        <v>674.9416580430319</v>
+        <v>409.635583669172</v>
       </c>
       <c r="S10">
-        <v>0.04869402512614008</v>
+        <v>0.01963575040971447</v>
       </c>
       <c r="T10">
-        <v>0.04144062818569007</v>
+        <v>0.01799459682662183</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>37.863356</v>
       </c>
       <c r="I11">
-        <v>0.252819649917553</v>
+        <v>0.1770540803477592</v>
       </c>
       <c r="J11">
-        <v>0.3020196447561928</v>
+        <v>0.2343865850050179</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.416348666666666</v>
+        <v>10.84612833333333</v>
       </c>
       <c r="N11">
-        <v>25.249046</v>
+        <v>32.538385</v>
       </c>
       <c r="O11">
-        <v>0.1818743420221987</v>
+        <v>0.2223656637745133</v>
       </c>
       <c r="P11">
-        <v>0.1943519856376384</v>
+        <v>0.230901520183746</v>
       </c>
       <c r="Q11">
-        <v>106.2237352620418</v>
+        <v>136.8902727688955</v>
       </c>
       <c r="R11">
-        <v>956.0136173583759</v>
+        <v>1232.01245492006</v>
       </c>
       <c r="S11">
-        <v>0.04598140747903756</v>
+        <v>0.03937074810051547</v>
       </c>
       <c r="T11">
-        <v>0.05869811765994024</v>
+        <v>0.05412021878833544</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.035148666666667</v>
+        <v>0.148746</v>
       </c>
       <c r="H12">
-        <v>3.105446</v>
+        <v>0.446238</v>
       </c>
       <c r="I12">
-        <v>0.02073555684176186</v>
+        <v>0.002086668141783929</v>
       </c>
       <c r="J12">
-        <v>0.02477080208446235</v>
+        <v>0.002762359493951598</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.03654733333334</v>
+        <v>15.70818033333333</v>
       </c>
       <c r="N12">
-        <v>42.10964200000001</v>
+        <v>47.12454099999999</v>
       </c>
       <c r="O12">
-        <v>0.3033248635033714</v>
+        <v>0.3220467100482788</v>
       </c>
       <c r="P12">
-        <v>0.3241347232362797</v>
+        <v>0.334408980496766</v>
       </c>
       <c r="Q12">
-        <v>14.52991325670356</v>
+        <v>2.336528991862</v>
       </c>
       <c r="R12">
-        <v>130.769219310332</v>
+        <v>21.028760926758</v>
       </c>
       <c r="S12">
-        <v>0.006289609948693816</v>
+        <v>0.0006720046100240696</v>
       </c>
       <c r="T12">
-        <v>0.008029077077987863</v>
+        <v>0.0009237578221379165</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.035148666666667</v>
+        <v>0.148746</v>
       </c>
       <c r="H13">
-        <v>3.105446</v>
+        <v>0.446238</v>
       </c>
       <c r="I13">
-        <v>0.02073555684176186</v>
+        <v>0.002086668141783929</v>
       </c>
       <c r="J13">
-        <v>0.02477080208446235</v>
+        <v>0.002762359493951598</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>17.55978</v>
       </c>
       <c r="O13">
-        <v>0.1264868951307928</v>
+        <v>0.1200026410479322</v>
       </c>
       <c r="P13">
-        <v>0.1351646359375356</v>
+        <v>0.1246091315254933</v>
       </c>
       <c r="Q13">
-        <v>6.058994284653333</v>
+        <v>0.8706490119600001</v>
       </c>
       <c r="R13">
-        <v>54.53094856188</v>
+        <v>7.83584110764</v>
       </c>
       <c r="S13">
-        <v>0.002622776203722527</v>
+        <v>0.0002504056880046525</v>
       </c>
       <c r="T13">
-        <v>0.003348136445627101</v>
+        <v>0.0003442152175025099</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.035148666666667</v>
+        <v>0.148746</v>
       </c>
       <c r="H14">
-        <v>3.105446</v>
+        <v>0.446238</v>
       </c>
       <c r="I14">
-        <v>0.02073555684176186</v>
+        <v>0.002086668141783929</v>
       </c>
       <c r="J14">
-        <v>0.02477080208446235</v>
+        <v>0.002762359493951598</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.056607</v>
+        <v>10.959131</v>
       </c>
       <c r="N14">
-        <v>27.169821</v>
+        <v>32.877393</v>
       </c>
       <c r="O14">
-        <v>0.1957100999869823</v>
+        <v>0.2246824271585863</v>
       </c>
       <c r="P14">
-        <v>0.2091369575218488</v>
+        <v>0.2333072161810874</v>
       </c>
       <c r="Q14">
-        <v>9.374934660574</v>
+        <v>1.630126899726</v>
       </c>
       <c r="R14">
-        <v>84.374411945166</v>
+        <v>14.671142097534</v>
       </c>
       <c r="S14">
-        <v>0.00405815790278697</v>
+        <v>0.0004688376627705102</v>
       </c>
       <c r="T14">
-        <v>0.005180490183320325</v>
+        <v>0.0006444784036252446</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.035148666666667</v>
+        <v>0.148746</v>
       </c>
       <c r="H15">
-        <v>3.105446</v>
+        <v>0.446238</v>
       </c>
       <c r="I15">
-        <v>0.02073555684176186</v>
+        <v>0.002086668141783929</v>
       </c>
       <c r="J15">
-        <v>0.02477080208446235</v>
+        <v>0.002762359493951598</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.912860999999999</v>
+        <v>5.4093935</v>
       </c>
       <c r="N15">
-        <v>17.825722</v>
+        <v>10.818787</v>
       </c>
       <c r="O15">
-        <v>0.1926037993566548</v>
+        <v>0.1109025579706895</v>
       </c>
       <c r="P15">
-        <v>0.1372116976666974</v>
+        <v>0.07677315161290731</v>
       </c>
       <c r="Q15">
-        <v>9.226136180335333</v>
+        <v>0.8046256455510001</v>
       </c>
       <c r="R15">
-        <v>55.356817082012</v>
+        <v>4.827753873306</v>
       </c>
       <c r="S15">
-        <v>0.003993747029499213</v>
+        <v>0.000231416834559783</v>
       </c>
       <c r="T15">
-        <v>0.003398843806574845</v>
+        <v>0.0002120750442385</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.035148666666667</v>
+        <v>0.148746</v>
       </c>
       <c r="H16">
-        <v>3.105446</v>
+        <v>0.446238</v>
       </c>
       <c r="I16">
-        <v>0.02073555684176186</v>
+        <v>0.002086668141783929</v>
       </c>
       <c r="J16">
-        <v>0.02477080208446235</v>
+        <v>0.002762359493951598</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.416348666666666</v>
+        <v>10.84612833333333</v>
       </c>
       <c r="N16">
-        <v>25.249046</v>
+        <v>32.538385</v>
       </c>
       <c r="O16">
-        <v>0.1818743420221987</v>
+        <v>0.2223656637745133</v>
       </c>
       <c r="P16">
-        <v>0.1943519856376384</v>
+        <v>0.230901520183746</v>
       </c>
       <c r="Q16">
-        <v>8.712172100501778</v>
+        <v>1.61331820507</v>
       </c>
       <c r="R16">
-        <v>78.409548904516</v>
+        <v>14.51986384563</v>
       </c>
       <c r="S16">
-        <v>0.003771265757059339</v>
+        <v>0.0004640033464249134</v>
       </c>
       <c r="T16">
-        <v>0.00481425457095221</v>
+        <v>0.0006378330064474273</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>24.3970965</v>
+        <v>52.3095915</v>
       </c>
       <c r="H17">
-        <v>48.794193</v>
+        <v>104.619183</v>
       </c>
       <c r="I17">
-        <v>0.4887098805611491</v>
+        <v>0.7338197873743252</v>
       </c>
       <c r="J17">
-        <v>0.3892102125343858</v>
+        <v>0.6476270362665431</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.03654733333334</v>
+        <v>15.70818033333333</v>
       </c>
       <c r="N17">
-        <v>42.10964200000001</v>
+        <v>47.12454099999999</v>
       </c>
       <c r="O17">
-        <v>0.3033248635033714</v>
+        <v>0.3220467100482788</v>
       </c>
       <c r="P17">
-        <v>0.3241347232362797</v>
+        <v>0.334408980496766</v>
       </c>
       <c r="Q17">
-        <v>342.4509998181511</v>
+        <v>821.6884964450003</v>
       </c>
       <c r="R17">
-        <v>2054.705998908906</v>
+        <v>4930.130978670002</v>
       </c>
       <c r="S17">
-        <v>0.1482378578139595</v>
+        <v>0.2363242482922289</v>
       </c>
       <c r="T17">
-        <v>0.1261565445205667</v>
+        <v>0.2165722969400368</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>24.3970965</v>
+        <v>52.3095915</v>
       </c>
       <c r="H18">
-        <v>48.794193</v>
+        <v>104.619183</v>
       </c>
       <c r="I18">
-        <v>0.4887098805611491</v>
+        <v>0.7338197873743252</v>
       </c>
       <c r="J18">
-        <v>0.3892102125343858</v>
+        <v>0.6476270362665431</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>17.55978</v>
       </c>
       <c r="O18">
-        <v>0.1264868951307928</v>
+        <v>0.1200026410479322</v>
       </c>
       <c r="P18">
-        <v>0.1351646359375356</v>
+        <v>0.1246091315254933</v>
       </c>
       <c r="Q18">
-        <v>142.80254905959</v>
+        <v>306.18163954329</v>
       </c>
       <c r="R18">
-        <v>856.81529435754</v>
+        <v>1837.08983725974</v>
       </c>
       <c r="S18">
-        <v>0.06181539541192036</v>
+        <v>0.08806031253815109</v>
       </c>
       <c r="T18">
-        <v>0.05260745668038111</v>
+        <v>0.08070024254160311</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>24.3970965</v>
+        <v>52.3095915</v>
       </c>
       <c r="H19">
-        <v>48.794193</v>
+        <v>104.619183</v>
       </c>
       <c r="I19">
-        <v>0.4887098805611491</v>
+        <v>0.7338197873743252</v>
       </c>
       <c r="J19">
-        <v>0.3892102125343858</v>
+        <v>0.6476270362665431</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.056607</v>
+        <v>10.959131</v>
       </c>
       <c r="N19">
-        <v>27.169821</v>
+        <v>32.877393</v>
       </c>
       <c r="O19">
-        <v>0.1957100999869823</v>
+        <v>0.2246824271585863</v>
       </c>
       <c r="P19">
-        <v>0.2091369575218488</v>
+        <v>0.2333072161810874</v>
       </c>
       <c r="Q19">
-        <v>220.9549149415755</v>
+        <v>573.2676658049866</v>
       </c>
       <c r="R19">
-        <v>1325.729489649453</v>
+        <v>3439.605994829919</v>
       </c>
       <c r="S19">
-        <v>0.09564545958924868</v>
+        <v>0.1648764109242611</v>
       </c>
       <c r="T19">
-        <v>0.08139823968587356</v>
+        <v>0.1510960609549553</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>24.3970965</v>
+        <v>52.3095915</v>
       </c>
       <c r="H20">
-        <v>48.794193</v>
+        <v>104.619183</v>
       </c>
       <c r="I20">
-        <v>0.4887098805611491</v>
+        <v>0.7338197873743252</v>
       </c>
       <c r="J20">
-        <v>0.3892102125343858</v>
+        <v>0.6476270362665431</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.912860999999999</v>
+        <v>5.4093935</v>
       </c>
       <c r="N20">
-        <v>17.825722</v>
+        <v>10.818787</v>
       </c>
       <c r="O20">
-        <v>0.1926037993566548</v>
+        <v>0.1109025579706895</v>
       </c>
       <c r="P20">
-        <v>0.1372116976666974</v>
+        <v>0.07677315161290731</v>
       </c>
       <c r="Q20">
-        <v>217.4479299080865</v>
+        <v>282.9631642477552</v>
       </c>
       <c r="R20">
-        <v>869.7917196323459</v>
+        <v>1131.852656991021</v>
       </c>
       <c r="S20">
-        <v>0.0941273797792143</v>
+        <v>0.08138249150932012</v>
       </c>
       <c r="T20">
-        <v>0.05340419401105917</v>
+        <v>0.04972036864390913</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>24.3970965</v>
+        <v>52.3095915</v>
       </c>
       <c r="H21">
-        <v>48.794193</v>
+        <v>104.619183</v>
       </c>
       <c r="I21">
-        <v>0.4887098805611491</v>
+        <v>0.7338197873743252</v>
       </c>
       <c r="J21">
-        <v>0.3892102125343858</v>
+        <v>0.6476270362665431</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.416348666666666</v>
+        <v>10.84612833333333</v>
       </c>
       <c r="N21">
-        <v>25.249046</v>
+        <v>32.538385</v>
       </c>
       <c r="O21">
-        <v>0.1818743420221987</v>
+        <v>0.2223656637745133</v>
       </c>
       <c r="P21">
-        <v>0.1943519856376384</v>
+        <v>0.230901520183746</v>
       </c>
       <c r="Q21">
-        <v>205.334470598313</v>
+        <v>567.3565424732424</v>
       </c>
       <c r="R21">
-        <v>1232.006823589878</v>
+        <v>3404.139254839455</v>
       </c>
       <c r="S21">
-        <v>0.08888378796680631</v>
+        <v>0.163176324110364</v>
       </c>
       <c r="T21">
-        <v>0.07564377763650512</v>
+        <v>0.1495380671860388</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>1.421312333333334</v>
+        <v>0.04153533333333333</v>
       </c>
       <c r="H22">
-        <v>4.263937</v>
+        <v>0.124606</v>
       </c>
       <c r="I22">
-        <v>0.028470985498763</v>
+        <v>0.0005826742018275633</v>
       </c>
       <c r="J22">
-        <v>0.03401158465728148</v>
+        <v>0.0007713519850468424</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>14.03654733333334</v>
+        <v>15.70818033333333</v>
       </c>
       <c r="N22">
-        <v>42.10964200000001</v>
+        <v>47.12454099999999</v>
       </c>
       <c r="O22">
-        <v>0.3033248635033714</v>
+        <v>0.3220467100482788</v>
       </c>
       <c r="P22">
-        <v>0.3241347232362797</v>
+        <v>0.334408980496766</v>
       </c>
       <c r="Q22">
-        <v>19.95031784228378</v>
+        <v>0.6524445062051111</v>
       </c>
       <c r="R22">
-        <v>179.552860580554</v>
+        <v>5.872000555845999</v>
       </c>
       <c r="S22">
-        <v>0.008635957790218755</v>
+        <v>0.0001876483097285735</v>
       </c>
       <c r="T22">
-        <v>0.01102433557971523</v>
+        <v>0.0002579470309236713</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>1.421312333333334</v>
+        <v>0.04153533333333333</v>
       </c>
       <c r="H23">
-        <v>4.263937</v>
+        <v>0.124606</v>
       </c>
       <c r="I23">
-        <v>0.028470985498763</v>
+        <v>0.0005826742018275633</v>
       </c>
       <c r="J23">
-        <v>0.03401158465728148</v>
+        <v>0.0007713519850468424</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>17.55978</v>
       </c>
       <c r="O23">
-        <v>0.1264868951307928</v>
+        <v>0.1200026410479322</v>
       </c>
       <c r="P23">
-        <v>0.1351646359375356</v>
+        <v>0.1246091315254933</v>
       </c>
       <c r="Q23">
-        <v>8.319310628206667</v>
+        <v>0.2431171051866667</v>
       </c>
       <c r="R23">
-        <v>74.87379565386</v>
+        <v>2.18805394668</v>
       </c>
       <c r="S23">
-        <v>0.00360120655705236</v>
+        <v>6.992244308980349E-05</v>
       </c>
       <c r="T23">
-        <v>0.004597163457860123</v>
+        <v>9.611750095715235E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>1.421312333333334</v>
+        <v>0.04153533333333333</v>
       </c>
       <c r="H24">
-        <v>4.263937</v>
+        <v>0.124606</v>
       </c>
       <c r="I24">
-        <v>0.028470985498763</v>
+        <v>0.0005826742018275633</v>
       </c>
       <c r="J24">
-        <v>0.03401158465728148</v>
+        <v>0.0007713519850468424</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.056607</v>
+        <v>10.959131</v>
       </c>
       <c r="N24">
-        <v>27.169821</v>
+        <v>32.877393</v>
       </c>
       <c r="O24">
-        <v>0.1957100999869823</v>
+        <v>0.2246824271585863</v>
       </c>
       <c r="P24">
-        <v>0.2091369575218488</v>
+        <v>0.2333072161810874</v>
       </c>
       <c r="Q24">
-        <v>12.872267227253</v>
+        <v>0.4551911591286667</v>
       </c>
       <c r="R24">
-        <v>115.850405045277</v>
+        <v>4.096720432158</v>
       </c>
       <c r="S24">
-        <v>0.005572059418690831</v>
+        <v>0.0001309166539093089</v>
       </c>
       <c r="T24">
-        <v>0.007113079335720639</v>
+        <v>0.0001799619843270345</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>1.421312333333334</v>
+        <v>0.04153533333333333</v>
       </c>
       <c r="H25">
-        <v>4.263937</v>
+        <v>0.124606</v>
       </c>
       <c r="I25">
-        <v>0.028470985498763</v>
+        <v>0.0005826742018275633</v>
       </c>
       <c r="J25">
-        <v>0.03401158465728148</v>
+        <v>0.0007713519850468424</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.912860999999999</v>
+        <v>5.4093935</v>
       </c>
       <c r="N25">
-        <v>17.825722</v>
+        <v>10.818787</v>
       </c>
       <c r="O25">
-        <v>0.1926037993566548</v>
+        <v>0.1109025579706895</v>
       </c>
       <c r="P25">
-        <v>0.1372116976666974</v>
+        <v>0.07677315161290731</v>
       </c>
       <c r="Q25">
-        <v>12.66795926458567</v>
+        <v>0.2246809621536667</v>
       </c>
       <c r="R25">
-        <v>76.007755587514</v>
+        <v>1.348085772922</v>
       </c>
       <c r="S25">
-        <v>0.005483619978489979</v>
+        <v>6.462005944620656E-05</v>
       </c>
       <c r="T25">
-        <v>0.004666787271160189</v>
+        <v>5.921912289491824E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>1.421312333333334</v>
+        <v>0.04153533333333333</v>
       </c>
       <c r="H26">
-        <v>4.263937</v>
+        <v>0.124606</v>
       </c>
       <c r="I26">
-        <v>0.028470985498763</v>
+        <v>0.0005826742018275633</v>
       </c>
       <c r="J26">
-        <v>0.03401158465728148</v>
+        <v>0.0007713519850468424</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.416348666666666</v>
+        <v>10.84612833333333</v>
       </c>
       <c r="N26">
-        <v>25.249046</v>
+        <v>32.538385</v>
       </c>
       <c r="O26">
-        <v>0.1818743420221987</v>
+        <v>0.2223656637745133</v>
       </c>
       <c r="P26">
-        <v>0.1943519856376384</v>
+        <v>0.230901520183746</v>
       </c>
       <c r="Q26">
-        <v>11.96226016156689</v>
+        <v>0.4504975557011111</v>
       </c>
       <c r="R26">
-        <v>107.660341454102</v>
+        <v>4.05447800131</v>
       </c>
       <c r="S26">
-        <v>0.005178141754311081</v>
+        <v>0.0001295667356536708</v>
       </c>
       <c r="T26">
-        <v>0.006610219012825292</v>
+        <v>0.000178106345944066</v>
       </c>
     </row>
   </sheetData>
